--- a/DataMapping/EricaDataMapping.xlsx
+++ b/DataMapping/EricaDataMapping.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7332" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7334" uniqueCount="492">
   <si>
     <t xml:space="preserve">Complaints per 1,000 properties </t>
   </si>
@@ -1498,6 +1498,12 @@
   </si>
   <si>
     <t>Kenneth Launder Court - Private</t>
+  </si>
+  <si>
+    <t>Ombudsmen Erica work needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source Data not established </t>
   </si>
 </sst>
 </file>
@@ -1521,12 +1527,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1541,10 +1553,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1828,7 +1841,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,22 +1886,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1916,6 +1932,9 @@
       </c>
       <c r="C11" t="s">
         <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
